--- a/biology/Botanique/Louis-Marie_Aubert_du_Petit-Thouars/Louis-Marie_Aubert_du_Petit-Thouars.xlsx
+++ b/biology/Botanique/Louis-Marie_Aubert_du_Petit-Thouars/Louis-Marie_Aubert_du_Petit-Thouars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Marie Aubert du Petit Thouars[1], est un botaniste français né le 5 novembre 1758 au château de Boumois près de Saumur et mort le 12 mai 1831 à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Marie Aubert du Petit Thouars, est un botaniste français né le 5 novembre 1758 au château de Boumois près de Saumur et mort le 12 mai 1831 à Paris.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait des études au Collège royal militaire de La Flèche. Il devait accompagner son frère Aristide à la recherche de Jean-François de La Pérouse, mais, parti après lui, il tenta inutilement de le rejoindre  à l'île de France, où il arriva trop tard et fut obligé de séjourner. En route, en 1793, il manqua de se retrouver abandonné involontairement sur l'archipel Tristan da Cunha, où il passa une nuit seul en pensant son navire parti sans lui[2].
-Bloqué dans le sud-ouest de l'océan Indien par les circonstances, il étudia la flore de la région. Pendant cette période, il reçut la visite de l'expédition Baudin et conduisit pour ses membres une herborisation trois jours après leur arrivée pour une escale de quelques jours. Membre du voyage d'exploration scientifique, Jean-Baptiste Bory de Saint-Vincent y participa et se lia d'amitié avec le commissaire civil du gouvernement Joseph Pierre Leboux-Dumorier à cette occasion[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études au Collège royal militaire de La Flèche. Il devait accompagner son frère Aristide à la recherche de Jean-François de La Pérouse, mais, parti après lui, il tenta inutilement de le rejoindre  à l'île de France, où il arriva trop tard et fut obligé de séjourner. En route, en 1793, il manqua de se retrouver abandonné involontairement sur l'archipel Tristan da Cunha, où il passa une nuit seul en pensant son navire parti sans lui.
+Bloqué dans le sud-ouest de l'océan Indien par les circonstances, il étudia la flore de la région. Pendant cette période, il reçut la visite de l'expédition Baudin et conduisit pour ses membres une herborisation trois jours après leur arrivée pour une escale de quelques jours. Membre du voyage d'exploration scientifique, Jean-Baptiste Bory de Saint-Vincent y participa et se lia d'amitié avec le commissaire civil du gouvernement Joseph Pierre Leboux-Dumorier à cette occasion.
 Après l'île de France, il passa ainsi quelques mois à Madagascar avant de visiter à nouveau les îles Mascareignes adjacentes. Il revient en France en 1802 avec un herbier de 2 000 plantes.
-Il publia en 1804 son Histoire des végétaux recueillis dans les îles de France, de Bourbon et de Madagascar[3] où 55 espèces ainsi qu'une clef de détermination sont brièvement décrites. Il fut admis cette même année à l'Académie des sciences le 10 avril 1820.
-À partir de 1806, il dirige la Pépinière du Roule[4]. Outre l'ouvrage déjà cité, il publie plusieurs écrits sur la botanique et l'agriculture : il soutient à l'Académie des sciences, sur la formation des couches du bois, une théorie célèbre, qui est vivement débattue.
+Il publia en 1804 son Histoire des végétaux recueillis dans les îles de France, de Bourbon et de Madagascar où 55 espèces ainsi qu'une clef de détermination sont brièvement décrites. Il fut admis cette même année à l'Académie des sciences le 10 avril 1820.
+À partir de 1806, il dirige la Pépinière du Roule. Outre l'ouvrage déjà cité, il publie plusieurs écrits sur la botanique et l'agriculture : il soutient à l'Académie des sciences, sur la formation des couches du bois, une théorie célèbre, qui est vivement débattue.
 Pierre Flourens a prononcé son Éloge à l'Institut de France. Une allée du jardin botanique de Pamplemousses à l'île Maurice lui est dédiée.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges Aubert du Petit-Thouars (1677-1762)
